--- a/src/FrontEnd/Dashboard/Dados/dados_crescimento_previsoes.xlsx
+++ b/src/FrontEnd/Dashboard/Dados/dados_crescimento_previsoes.xlsx
@@ -79,7 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,6 +93,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -115,29 +122,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -471,7 +471,7 @@
     <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>2014</v>
       </c>
@@ -563,7 +563,7 @@
         <v>0.0008926428599826213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2015</v>
       </c>
@@ -610,7 +610,7 @@
         <v>-0.0006297935808510226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>2016</v>
       </c>
@@ -657,7 +657,7 @@
         <v>0.0001123826368544455</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>2017</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0.0008895205974675827</v>
       </c>
       <c r="D5" s="4">
-        <v>0.001097730548939721</v>
+        <v>0.00109773054894</v>
       </c>
       <c r="E5" s="4">
         <v>0.0004471006507814695</v>
@@ -704,7 +704,7 @@
         <v>0.001071702819724996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>2018</v>
       </c>
@@ -715,7 +715,7 @@
         <v>-0.0003259212126972806</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.007055672497561056</v>
+        <v>0.00109873054894</v>
       </c>
       <c r="E6" s="4">
         <v>-0.0002361214689096544</v>
@@ -751,7 +751,7 @@
         <v>-0.0003560238942517022</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>2019</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0.0004465328681775978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>2020</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0.00242199568497025</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0.001968170866439163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
@@ -939,7 +939,7 @@
         <v>-0.0001902927422363562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>2023</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0.001415380645149811</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>2024</v>
       </c>
@@ -997,7 +997,7 @@
         <v>-0.0001090689771206674</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.002763203322621758</v>
+        <v>0.00106873054894</v>
       </c>
       <c r="E12" s="4">
         <v>0.00003499485935972424</v>
@@ -1033,7 +1033,7 @@
         <v>0.0009420230042412018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>2025</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0.00005569305007925349</v>
       </c>
       <c r="D13" s="4">
-        <v>-0.003363167384432502</v>
+        <v>-0.003363167384433</v>
       </c>
       <c r="E13" s="4">
         <v>0.00008484570412297116</v>
@@ -1080,7 +1080,7 @@
         <v>0.0002672285517590802</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>2026</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.001501473877005379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>2027</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0.00236601989283624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>2028</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0.002188330991091685</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>2029</v>
       </c>
